--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45804.48548514055</v>
+        <v>45804.48548513889</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -474,6 +474,26 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45804.43437102554</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>12,88€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45804.43437102554</v>
+        <v>45804.43437103009</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -494,6 +494,26 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45804.43708293671</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>12,88€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45804.43708293671</v>
+        <v>45804.43708293982</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -514,6 +514,26 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45804.44035107633</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>12,88€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45804.53523658248</v>
+        <v>45804.53523658565</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -474,6 +474,26 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45804.45374693675</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>12,88€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45804.45374693675</v>
+        <v>45804.45374693287</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,6 +496,26 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45805.39378755033</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15,41€</t>
         </is>
       </c>
     </row>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45805.39378755033</v>
+        <v>45805.39378754629</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -516,6 +516,26 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45806.39330972313</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12,88€</t>
         </is>
       </c>
     </row>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45806.39330972313</v>
+        <v>45806.39330972223</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,6 +534,26 @@
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45806.40671058597</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>12,88€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45806.40671058597</v>
+        <v>45806.40671059028</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -556,6 +556,26 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45807.39295208645</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15,41€</t>
         </is>
       </c>
     </row>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45807.39295208645</v>
+        <v>45807.39295208333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -574,6 +574,26 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45808.39136096802</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45808.39136096802</v>
+        <v>45808.39136097222</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -594,6 +594,26 @@
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45809.39167575715</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45809.39167575715</v>
+        <v>45809.39167575232</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -614,6 +614,26 @@
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45810.39396889304</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45810.39396889304</v>
+        <v>45810.39396888889</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -634,6 +634,26 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45811.3938219378</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45811.3938219378</v>
+        <v>45811.39382193287</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -656,6 +656,26 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45812.39352998948</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12,88€</t>
         </is>
       </c>
     </row>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45812.39352998948</v>
+        <v>45812.39352998843</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -676,6 +676,26 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45813.39355503808</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15,41€</t>
         </is>
       </c>
     </row>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45813.39355503808</v>
+        <v>45813.39355503472</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -694,6 +694,26 @@
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45814.39350229006</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45814.39350229006</v>
+        <v>45814.39350229167</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -714,6 +714,26 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45815.3911123033</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45815.3911123033</v>
+        <v>45815.39111230324</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -734,6 +734,26 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45816.39142756458</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45816.39142756458</v>
+        <v>45816.39142756945</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -754,6 +754,26 @@
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45817.39397020341</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45817.39397020341</v>
+        <v>45817.39397020833</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -774,6 +774,26 @@
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45818.39375911181</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45818.39375911181</v>
+        <v>45818.3937591088</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -794,6 +794,386 @@
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45833.41288174769</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45833.41722056713</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45833.41746144676</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45833.41859150463</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45833.42342791666</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45833.42990267361</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45833.43051061343</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45833.43422083333</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45833.4369330787</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45833.43815046296</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45833.43892174769</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45833.43977028935</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45833.44140856482</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45833.44283475694</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45833.44410322917</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45833.44530853009</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45833.45332490741</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45833.45424282407</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45833.45891689683</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>

--- a/precios_creatina.xlsx
+++ b/precios_creatina.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45833.45891689683</v>
+        <v>45833.45891689815</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1174,6 +1174,126 @@
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45834.45434878472</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12,88€</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45853.38054951389</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45853.38514180556</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45853.38685481482</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45853.39298033565</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15,41€</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45853.39427826957</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CREATINA MONOHIDRATO EN POLVO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>15,41€</t>
         </is>
